--- a/Cantarrana_Mensual.xlsx
+++ b/Cantarrana_Mensual.xlsx
@@ -377,7 +377,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C51"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -396,7 +396,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.216</v>
+        <v>17.08</v>
       </c>
       <c r="C2">
         <v>0.022</v>
@@ -407,10 +407,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.865</v>
+        <v>16.593</v>
       </c>
       <c r="C3">
-        <v>0.033</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -418,10 +418,10 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.515</v>
+        <v>16.105</v>
       </c>
       <c r="C4">
-        <v>0.121</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -429,10 +429,10 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.164</v>
+        <v>15.618</v>
       </c>
       <c r="C5">
-        <v>0.186</v>
+        <v>0.351</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -440,10 +440,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.813</v>
+        <v>15.131</v>
       </c>
       <c r="C6">
-        <v>0.307</v>
+        <v>0.471</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -451,10 +451,10 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.463</v>
+        <v>14.644</v>
       </c>
       <c r="C7">
-        <v>0.395</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -462,10 +462,10 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.112</v>
+        <v>14.157</v>
       </c>
       <c r="C8">
-        <v>0.471</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -473,10 +473,10 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.761</v>
+        <v>13.67</v>
       </c>
       <c r="C9">
-        <v>0.658</v>
+        <v>1.381</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -484,10 +484,10 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.411</v>
+        <v>13.183</v>
       </c>
       <c r="C10">
-        <v>0.833</v>
+        <v>1.611</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -495,10 +495,10 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.06</v>
+        <v>12.696</v>
       </c>
       <c r="C11">
-        <v>1.063</v>
+        <v>1.863</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -506,10 +506,10 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.709</v>
+        <v>12.209</v>
       </c>
       <c r="C12">
-        <v>1.326</v>
+        <v>2.126</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -517,10 +517,10 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.359</v>
+        <v>11.722</v>
       </c>
       <c r="C13">
-        <v>1.535</v>
+        <v>2.422</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -528,10 +528,10 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.008</v>
+        <v>11.235</v>
       </c>
       <c r="C14">
-        <v>1.743</v>
+        <v>2.817</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -539,10 +539,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>12.657</v>
+        <v>10.748</v>
       </c>
       <c r="C15">
-        <v>1.885</v>
+        <v>3.234</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -550,10 +550,10 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>12.306</v>
+        <v>10.261</v>
       </c>
       <c r="C16">
-        <v>2.072</v>
+        <v>3.519</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -561,10 +561,10 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>11.956</v>
+        <v>9.773999999999999</v>
       </c>
       <c r="C17">
-        <v>2.203</v>
+        <v>4.297</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -572,10 +572,10 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>11.605</v>
+        <v>9.287000000000001</v>
       </c>
       <c r="C18">
-        <v>2.51</v>
+        <v>5.108</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -583,10 +583,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>11.254</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="C19">
-        <v>2.784</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -594,10 +594,10 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>10.904</v>
+        <v>8.313000000000001</v>
       </c>
       <c r="C20">
-        <v>3.047</v>
+        <v>6.993</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.553</v>
+        <v>7.826</v>
       </c>
       <c r="C21">
-        <v>3.332</v>
+        <v>8.407</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -616,10 +616,10 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.202</v>
+        <v>7.339</v>
       </c>
       <c r="C22">
-        <v>3.573</v>
+        <v>10.15</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -627,10 +627,10 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>9.852</v>
+        <v>6.851</v>
       </c>
       <c r="C23">
-        <v>4.132</v>
+        <v>12.112</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -638,10 +638,10 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.500999999999999</v>
+        <v>6.364</v>
       </c>
       <c r="C24">
-        <v>4.779</v>
+        <v>13.943</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -649,10 +649,10 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.15</v>
+        <v>5.877</v>
       </c>
       <c r="C25">
-        <v>5.437</v>
+        <v>16.19</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -660,10 +660,10 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>8.800000000000001</v>
+        <v>5.39</v>
       </c>
       <c r="C26">
-        <v>6.16</v>
+        <v>18.722</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -671,10 +671,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>8.449</v>
+        <v>4.903</v>
       </c>
       <c r="C27">
-        <v>6.675</v>
+        <v>21.407</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -682,10 +682,10 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>8.098000000000001</v>
+        <v>4.416</v>
       </c>
       <c r="C28">
-        <v>7.519</v>
+        <v>25.496</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -693,10 +693,10 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7.748</v>
+        <v>3.929</v>
       </c>
       <c r="C29">
-        <v>8.648</v>
+        <v>30.001</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -704,10 +704,10 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>7.397</v>
+        <v>3.442</v>
       </c>
       <c r="C30">
-        <v>9.964</v>
+        <v>34.78</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -715,10 +715,10 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>7.046</v>
+        <v>2.955</v>
       </c>
       <c r="C31">
-        <v>11.268</v>
+        <v>40.14</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -726,10 +726,10 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>6.696</v>
+        <v>2.468</v>
       </c>
       <c r="C32">
-        <v>12.89</v>
+        <v>45.5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -737,10 +737,10 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>6.345</v>
+        <v>1.981</v>
       </c>
       <c r="C33">
-        <v>13.998</v>
+        <v>51.014</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -748,10 +748,10 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>5.994</v>
+        <v>1.494</v>
       </c>
       <c r="C34">
-        <v>15.598</v>
+        <v>55.398</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -759,10 +759,10 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>5.644</v>
+        <v>1.007</v>
       </c>
       <c r="C35">
-        <v>17.56</v>
+        <v>61.241</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -770,10 +770,10 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>5.293</v>
+        <v>0.52</v>
       </c>
       <c r="C36">
-        <v>19.182</v>
+        <v>70.361</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -781,164 +781,10 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>4.942</v>
+        <v>0.033</v>
       </c>
       <c r="C37">
-        <v>21.199</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
-      </c>
-      <c r="B38">
-        <v>4.592</v>
-      </c>
-      <c r="C38">
-        <v>24.082</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
-      </c>
-      <c r="B39">
-        <v>4.241</v>
-      </c>
-      <c r="C39">
-        <v>27.283</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>3.89</v>
-      </c>
-      <c r="C40">
-        <v>30.363</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
-      </c>
-      <c r="B41">
-        <v>3.539</v>
-      </c>
-      <c r="C41">
-        <v>33.794</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
-      </c>
-      <c r="B42">
-        <v>3.189</v>
-      </c>
-      <c r="C42">
-        <v>37.356</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
-      </c>
-      <c r="B43">
-        <v>2.838</v>
-      </c>
-      <c r="C43">
-        <v>41.434</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
-      </c>
-      <c r="B44">
-        <v>2.487</v>
-      </c>
-      <c r="C44">
-        <v>45.369</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
-      </c>
-      <c r="B45">
-        <v>2.137</v>
-      </c>
-      <c r="C45">
-        <v>49.545</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
-      </c>
-      <c r="B46">
-        <v>1.786</v>
-      </c>
-      <c r="C46">
-        <v>52.746</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
-      </c>
-      <c r="B47">
-        <v>1.435</v>
-      </c>
-      <c r="C47">
-        <v>55.979</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
-      </c>
-      <c r="B48">
-        <v>1.085</v>
-      </c>
-      <c r="C48">
-        <v>60.035</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
-      </c>
-      <c r="B49">
-        <v>0.734</v>
-      </c>
-      <c r="C49">
-        <v>66.404</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
-      </c>
-      <c r="B50">
-        <v>0.383</v>
-      </c>
-      <c r="C50">
-        <v>74.044</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
-      </c>
-      <c r="B51">
-        <v>0.033</v>
-      </c>
-      <c r="C51">
-        <v>100</v>
+        <v>99.967</v>
       </c>
     </row>
   </sheetData>
